--- a/Lista de exercícios - Manzano/Atividades do capítulo 6/GE & GR do capítulo/Planilha de grau Nº6.xlsx
+++ b/Lista de exercícios - Manzano/Atividades do capítulo 6/GE & GR do capítulo/Planilha de grau Nº6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justd\Documents\MeuProjetos\Programas-em-C\Manzano\Atividades-Capitulo-5\Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justd\Documents\MeuProjetos\Códigos em Linguagem C\Lista de exercícios - Manzano\Atividades do capítulo 6\GE &amp; GR do capítulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FB48FF-5598-486C-B37A-876086131849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD8C5B-9826-49F6-AEA3-B9FE97936820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C5CAC48-2255-42A7-8E2C-4290F3FEA30D}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Questões </t>
   </si>
@@ -94,13 +88,19 @@
   </si>
   <si>
     <t>4 e 5 - Difícl</t>
+  </si>
+  <si>
+    <t>Atividades do capítulo 6</t>
+  </si>
+  <si>
+    <t>Legenda:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +124,14 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -139,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,11 +170,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -175,6 +192,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,167 +510,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECCB3BD-1EE7-4C26-8685-D4AD03A53AD8}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="4:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="4:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
